--- a/output/fit_clients/fit_round_236.xlsx
+++ b/output/fit_clients/fit_round_236.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2130103875.428779</v>
+        <v>1866404840.216708</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09547775841711707</v>
+        <v>0.1011717200373881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03475125713373487</v>
+        <v>0.04442861006373439</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1065051950.822484</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1919735292.435696</v>
+        <v>2029317626.595592</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1790302544407497</v>
+        <v>0.164621970858574</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04658619492710862</v>
+        <v>0.04934125719860148</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>959867673.8338494</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4765336862.184535</v>
+        <v>3190726949.274511</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1490227046036823</v>
+        <v>0.1140392723557873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03557704890328982</v>
+        <v>0.03172242555012129</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2382668499.485087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2908278801.29562</v>
+        <v>2891626017.537678</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1088963969949609</v>
+        <v>0.1097887264900713</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04503639897927536</v>
+        <v>0.04168453246849537</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1454139476.579515</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2603013742.162092</v>
+        <v>2666978179.289141</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1407948657917116</v>
+        <v>0.1318160570118924</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04839221113729036</v>
+        <v>0.05229858260086938</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1301506835.404764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2705173140.225992</v>
+        <v>2393501067.715819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0771421647924834</v>
+        <v>0.07580537781749513</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03979640600664378</v>
+        <v>0.03290273153384699</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>73</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1352586563.42723</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3922272436.407933</v>
+        <v>3112557787.670764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2190307172738778</v>
+        <v>0.1340042591824847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0204933298242898</v>
+        <v>0.02694519636080446</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>76</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1961136369.989768</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2299588223.5959</v>
+        <v>1505159452.013482</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1769403080135424</v>
+        <v>0.1212544551822286</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03518403349480661</v>
+        <v>0.02621813803195595</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1149794096.834594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5495385422.885192</v>
+        <v>3640101153.91289</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2103341376725707</v>
+        <v>0.1376756187181082</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04620195145719361</v>
+        <v>0.03458254240368019</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2747692849.130406</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3396838505.603919</v>
+        <v>3622085255.457089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1909316095965932</v>
+        <v>0.1409269808727943</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04102241483828244</v>
+        <v>0.04229721134679898</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1698419223.410659</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2275173370.966616</v>
+        <v>2410666738.458525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1599515845020565</v>
+        <v>0.1793664782078198</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05285613354854929</v>
+        <v>0.03448934740556094</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1137586637.089005</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5297325711.012652</v>
+        <v>4376695868.433931</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0796199249627659</v>
+        <v>0.07032020854177043</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02179812653335518</v>
+        <v>0.02915378790356749</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>79</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2648662844.522456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3440943013.005227</v>
+        <v>3756899854.035807</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1602964591054795</v>
+        <v>0.1836144898394022</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03472702326826079</v>
+        <v>0.04158344323496711</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1720471509.00496</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1256814562.942126</v>
+        <v>1623249990.019261</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07774979702652431</v>
+        <v>0.06894494911477125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04014750637976211</v>
+        <v>0.03232622984612372</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>628407311.8240914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2489008197.44217</v>
+        <v>1997030082.733776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1120237036579304</v>
+        <v>0.1143601951787334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03383749026096592</v>
+        <v>0.04025627327780593</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1244504130.511355</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3942293151.97142</v>
+        <v>4262954763.781494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1745002485770366</v>
+        <v>0.150182585391904</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04960837133529977</v>
+        <v>0.05226201898382482</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>69</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1971146613.418487</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3167206661.442918</v>
+        <v>3910329257.696657</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1615381178831667</v>
+        <v>0.1255791401025871</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02469462953543944</v>
+        <v>0.02433023906279422</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1583603348.842091</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>933890417.3362505</v>
+        <v>1057147428.499238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1553082160782312</v>
+        <v>0.149838906643908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02448337756626542</v>
+        <v>0.02320889346860026</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>466945221.7965756</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2743806602.605928</v>
+        <v>2465882117.589204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1519375845937694</v>
+        <v>0.09858225066736721</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02517584649132367</v>
+        <v>0.0278575991284689</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1371903248.419476</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2663438225.366989</v>
+        <v>1837450552.326827</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07782522965109148</v>
+        <v>0.09845136136505794</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03980532542283481</v>
+        <v>0.03541064097262172</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1331719085.186098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2827786520.289527</v>
+        <v>3680756323.196137</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09650565529072952</v>
+        <v>0.09953084402332883</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04242426141104647</v>
+        <v>0.04280748341388174</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1413893331.974299</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1451110868.451612</v>
+        <v>1411714591.582983</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1500875307836163</v>
+        <v>0.1299209123401596</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04214492309173467</v>
+        <v>0.04350801864471108</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>725555428.3948607</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3201211457.627941</v>
+        <v>2617305487.672553</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1027550305386304</v>
+        <v>0.1052620821018183</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03382882986063593</v>
+        <v>0.03324053089176662</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1600605750.516529</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1213198490.600193</v>
+        <v>1249783796.361025</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09770998170680648</v>
+        <v>0.1147674424375254</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0218530548570452</v>
+        <v>0.03066293831587681</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>606599260.225942</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1433937912.730566</v>
+        <v>1313003382.553594</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09245896854977968</v>
+        <v>0.1063692714769483</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03601850202613717</v>
+        <v>0.03855226598163669</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>716969034.6553471</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3035282866.604943</v>
+        <v>3734490837.168692</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1336306690963344</v>
+        <v>0.1420167343064501</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02069339028288929</v>
+        <v>0.0199665351489382</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1517641491.350046</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3727189750.181408</v>
+        <v>2384303196.047161</v>
       </c>
       <c r="F28" t="n">
-        <v>0.111819289735058</v>
+        <v>0.1408261162785512</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0318498747816764</v>
+        <v>0.03962490103696999</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>76</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1863594949.418709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5786961651.811925</v>
+        <v>4773600118.33041</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1235188536143681</v>
+        <v>0.1503365206817436</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03538463563105652</v>
+        <v>0.03969090893478499</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>105</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2893480718.897197</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1478862859.298647</v>
+        <v>2014842246.042587</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1140332424099346</v>
+        <v>0.08855206290955782</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02744226261913027</v>
+        <v>0.03506000104772033</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>739431407.719882</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1277182623.445402</v>
+        <v>971142418.6141917</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09522376361502594</v>
+        <v>0.08714884101205195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04842230299428857</v>
+        <v>0.04985713011483663</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>638591245.0150142</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1221532257.435901</v>
+        <v>1683819287.407961</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08504106376509331</v>
+        <v>0.116261529443602</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02658085141903203</v>
+        <v>0.03407676563617425</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>610766139.3568263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2304636413.064572</v>
+        <v>2786778034.006028</v>
       </c>
       <c r="F33" t="n">
-        <v>0.176590465932323</v>
+        <v>0.2012481546794341</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04726276622443115</v>
+        <v>0.04835444390291976</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>70</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1152318261.369089</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1366759384.630717</v>
+        <v>1097182916.631293</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1018922432650261</v>
+        <v>0.07992687329673663</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01901818580566129</v>
+        <v>0.02074527967545367</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>683379669.9820659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>823466042.4795626</v>
+        <v>1216987409.936133</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07226537908592078</v>
+        <v>0.1146946064023479</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04199066355133163</v>
+        <v>0.04503598904134453</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>411733078.5113909</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2219261809.926355</v>
+        <v>2942202516.795243</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1811414056205571</v>
+        <v>0.1758521245457513</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02449249302767169</v>
+        <v>0.01923570647153954</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1109630949.433421</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2773427190.251767</v>
+        <v>2377092364.831683</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07607500624860383</v>
+        <v>0.1056406223357776</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03809710854899654</v>
+        <v>0.03116059429217486</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1386713728.770928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1511448157.294653</v>
+        <v>1723670911.436296</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0781704003125747</v>
+        <v>0.097026158776714</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03511946748092217</v>
+        <v>0.03025276208085593</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>755724126.2742414</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2120098592.713892</v>
+        <v>1484926077.087739</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1214690947016984</v>
+        <v>0.1552255951223838</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02649962209921514</v>
+        <v>0.02829926574398828</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1060049272.643766</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1294695266.730039</v>
+        <v>1188278065.436325</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1535629341593364</v>
+        <v>0.1241973241709989</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03920489972287729</v>
+        <v>0.03944268370665779</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>647347650.9467016</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1882454732.792605</v>
+        <v>1954096519.257451</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1653892997774193</v>
+        <v>0.1532489703470696</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02866811650823533</v>
+        <v>0.04256659407941547</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57</v>
-      </c>
-      <c r="J41" t="n">
-        <v>941227452.0990285</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4296611713.556314</v>
+        <v>4030961041.718307</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1001606023969779</v>
+        <v>0.07874770550783752</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03445103572994419</v>
+        <v>0.04071262756799474</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2148305906.459039</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2347983381.944824</v>
+        <v>2722103165.344625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1608540788606189</v>
+        <v>0.2027588480296499</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02577206371308869</v>
+        <v>0.02370117075097493</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1173991754.910039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1600743066.591119</v>
+        <v>1553340896.010277</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0889721863760016</v>
+        <v>0.09114974034221396</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03258270362197495</v>
+        <v>0.02830600235173756</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>800371559.9536459</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2226251700.945492</v>
+        <v>2388726371.84686</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1243970461662107</v>
+        <v>0.1514729983636615</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04393311318983763</v>
+        <v>0.03553485514612206</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1113125864.119562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4929546598.448585</v>
+        <v>4766308944.82719</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1750549906288991</v>
+        <v>0.1715441594894136</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05612227598393458</v>
+        <v>0.05340127561332509</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>84</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2464773321.976863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4181879316.970839</v>
+        <v>4329132792.013406</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1703315346523031</v>
+        <v>0.1335822549410054</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04243583050621836</v>
+        <v>0.04317064293679349</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>63</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2090939667.947856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4067035456.144808</v>
+        <v>3586649302.613583</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07646693157327886</v>
+        <v>0.07961812560911433</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03689129096009747</v>
+        <v>0.02515939592364007</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>80</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2033517758.523012</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1432860954.62094</v>
+        <v>1367385963.342795</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1862733655118711</v>
+        <v>0.1863769849210434</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03611895826952911</v>
+        <v>0.0274821349003456</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>716430519.7544712</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2593823463.203371</v>
+        <v>3144307445.632887</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1664180230149179</v>
+        <v>0.1163488803681147</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03883476466571881</v>
+        <v>0.03761858834338831</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>80</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1296911820.336158</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>951562813.0086601</v>
+        <v>1304702680.761309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1622937558167451</v>
+        <v>0.1498876891089054</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05374794223053424</v>
+        <v>0.04938383581612769</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>475781498.2951319</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3591111823.204728</v>
+        <v>3741912122.54384</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1095918245018909</v>
+        <v>0.09472978032066902</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0574037861498899</v>
+        <v>0.04551032384652439</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>98</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1795555992.13882</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3194570529.434269</v>
+        <v>3503266317.089826</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1238793827952469</v>
+        <v>0.1783307694011972</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03317109404427774</v>
+        <v>0.03158314467562885</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1597285283.670706</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4896243462.822021</v>
+        <v>4773275700.838942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1480309826133235</v>
+        <v>0.1070637064552412</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04766277418289196</v>
+        <v>0.04484379230598459</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>77</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2448121865.851572</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3855484296.78105</v>
+        <v>4392385861.439066</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1897907712587359</v>
+        <v>0.2122802462770257</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02995752397074306</v>
+        <v>0.02288305266418309</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>63</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1927742116.89868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1531611710.423507</v>
+        <v>1691267523.403627</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1359805274292443</v>
+        <v>0.1355257506194866</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0475886120426627</v>
+        <v>0.05079763334970431</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>765805892.7857364</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2883256769.478238</v>
+        <v>3902782009.751709</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1811647792080639</v>
+        <v>0.1613237687358547</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02768122072987684</v>
+        <v>0.01875914859964197</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>75</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1441628379.328179</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1295610291.233145</v>
+        <v>1578429701.384295</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1390416440788271</v>
+        <v>0.1838041817981061</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02884741090015588</v>
+        <v>0.02764102113976439</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>647805195.4033581</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3946764139.435411</v>
+        <v>3646765248.801146</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1220277840490142</v>
+        <v>0.08655432310200988</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03814801381179921</v>
+        <v>0.0315156918756346</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1973382048.230225</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3153795762.150338</v>
+        <v>3770496509.519956</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1627077796547758</v>
+        <v>0.1820036714119343</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02729888419459274</v>
+        <v>0.02320471920856682</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>75</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1576897967.54594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2202143306.350996</v>
+        <v>2133318677.604264</v>
       </c>
       <c r="F61" t="n">
-        <v>0.152470751175199</v>
+        <v>0.1506320032489636</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03305693058886916</v>
+        <v>0.03212607959521725</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>81</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1101071708.870981</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1737572370.108138</v>
+        <v>1770774094.049181</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1587321527589134</v>
+        <v>0.1411531967015111</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03173254110158663</v>
+        <v>0.04441914108443204</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>868786203.739886</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4284884340.746838</v>
+        <v>4873209517.185355</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0917891832974535</v>
+        <v>0.1072534114910401</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0361918563081549</v>
+        <v>0.04269674531235571</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>68</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2142442220.02747</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4000935617.246208</v>
+        <v>4576681696.236918</v>
       </c>
       <c r="F64" t="n">
-        <v>0.16941771995698</v>
+        <v>0.1488070369570297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02661074779144024</v>
+        <v>0.0216928870323248</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>74</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2000467844.542706</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5493767011.064515</v>
+        <v>4604965901.150398</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1388630470759764</v>
+        <v>0.1289207934437853</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02391081155320902</v>
+        <v>0.0262371442802266</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>85</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2746883434.976101</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5037416090.696617</v>
+        <v>4159196203.87612</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1507092924883615</v>
+        <v>0.1542981864543918</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03250792435113507</v>
+        <v>0.03272020938108021</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>69</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2518708074.538039</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3227023887.892684</v>
+        <v>2203412901.977975</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07075657107151932</v>
+        <v>0.08768334255655039</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0477321305483859</v>
+        <v>0.04245465840903539</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>77</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1613511942.947887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3880052217.247507</v>
+        <v>5262866982.904059</v>
       </c>
       <c r="F68" t="n">
-        <v>0.15068044197522</v>
+        <v>0.1593343889281416</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04681553297160743</v>
+        <v>0.04138128167825905</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1940026097.142568</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2099634011.195342</v>
+        <v>2235838745.480512</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1817008969094074</v>
+        <v>0.1464295797161157</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04757184129313503</v>
+        <v>0.04361713273329286</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1049817023.408848</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2384750874.493917</v>
+        <v>3355813801.653059</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07886597758372416</v>
+        <v>0.06538937754598213</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04428517811994166</v>
+        <v>0.04044960442883268</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1192375374.195419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3557706053.058121</v>
+        <v>3546446800.85947</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1824063275272386</v>
+        <v>0.1123292971806513</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02554232790226402</v>
+        <v>0.02205884105089318</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>86</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1778853024.5468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1643758019.692767</v>
+        <v>1608451247.368255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0825556313532305</v>
+        <v>0.07881470019208549</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05034903862315588</v>
+        <v>0.0342680044997947</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>821879013.6557838</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3378674376.564062</v>
+        <v>2964566914.946702</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09796661802428251</v>
+        <v>0.09476821915509501</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04717518677624029</v>
+        <v>0.04596375147375712</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1689337149.559213</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3632313548.8771</v>
+        <v>3488104171.969596</v>
       </c>
       <c r="F74" t="n">
-        <v>0.168860702859617</v>
+        <v>0.1470288844462774</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02258899845374667</v>
+        <v>0.03087805290278831</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>81</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1816156785.159163</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1630159046.662589</v>
+        <v>2316472216.117899</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1613196741697431</v>
+        <v>0.1556512951581277</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03517453972398301</v>
+        <v>0.03765724148378696</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>815079522.23804</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3820418828.527547</v>
+        <v>3815533918.17639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.110113889542917</v>
+        <v>0.08565952819875752</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02421212060382263</v>
+        <v>0.02945997000314742</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>52</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1910209391.457285</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1774015276.910106</v>
+        <v>1590398594.674709</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1485173323346225</v>
+        <v>0.1359986270070929</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03071832633248871</v>
+        <v>0.03051660678182014</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>887007666.5603634</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3229754695.236224</v>
+        <v>3356446419.370306</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1111967463052398</v>
+        <v>0.109048116255715</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05024676284382144</v>
+        <v>0.0567888619984987</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>82</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1614877368.466407</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1490157963.210912</v>
+        <v>1806954562.552402</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1563326846765516</v>
+        <v>0.1122098160962408</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04073800545131982</v>
+        <v>0.03489643282994931</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>745079014.0786811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4034872516.693152</v>
+        <v>3456033544.059943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07770401874390206</v>
+        <v>0.08482702224284731</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02782509266102563</v>
+        <v>0.03564383371984685</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>49</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2017436259.534363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3180727916.4141</v>
+        <v>3994315930.449949</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09663315062978066</v>
+        <v>0.1155331852247857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02685933520340106</v>
+        <v>0.0288048552334544</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1590363890.965349</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5597131327.059235</v>
+        <v>4769136311.086363</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1588223648042668</v>
+        <v>0.2133285658060269</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01873272463569669</v>
+        <v>0.02924136664392032</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2798565614.155871</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1967447150.725725</v>
+        <v>2146031837.697721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09905602108632863</v>
+        <v>0.1289403069151611</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04403640821469362</v>
+        <v>0.03687925580802719</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>983723556.6433932</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2229515695.869877</v>
+        <v>1777250004.584239</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09746468562294427</v>
+        <v>0.08831170519738346</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04616439166987862</v>
+        <v>0.03410338408368003</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1114757819.306908</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2295194041.72566</v>
+        <v>2888448836.373716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1432481118038867</v>
+        <v>0.1115597109305635</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0362033650434493</v>
+        <v>0.03940400718741573</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>89</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1147597003.18382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2460005558.103647</v>
+        <v>2728589332.855605</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1178157273319138</v>
+        <v>0.1369206744295133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02741238399536315</v>
+        <v>0.02446531177958483</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>30</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1230002870.614868</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1328810738.984414</v>
+        <v>1479649512.595938</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121075926255385</v>
+        <v>0.1596007503101437</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04426962418518598</v>
+        <v>0.04182004148731512</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>664405458.0772619</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3555299075.468775</v>
+        <v>3705513655.86318</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1509227700720393</v>
+        <v>0.1543260069682071</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02954940615080889</v>
+        <v>0.03605732578436799</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>93</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1777649623.054513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3279014207.679282</v>
+        <v>2266080854.29901</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1499547310178608</v>
+        <v>0.1459345324689222</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03681803346484516</v>
+        <v>0.02544596923757272</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>80</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1639507121.48136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1704737607.633396</v>
+        <v>2114923379.656866</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1099299062781855</v>
+        <v>0.09398478639016181</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04957482186913334</v>
+        <v>0.05013812969029296</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>852368819.9924043</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1358697450.40981</v>
+        <v>1366196985.20369</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1887213988475951</v>
+        <v>0.1936599952322771</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0486814897192491</v>
+        <v>0.04630724456743943</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>679348782.935627</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2600152560.550235</v>
+        <v>2274759927.338628</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07107158179106472</v>
+        <v>0.06933782099128497</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03411126291382297</v>
+        <v>0.03908430331077886</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>59</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1300076271.771697</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3455431187.884901</v>
+        <v>4155312069.602747</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1332198087452038</v>
+        <v>0.09326596452641087</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03844348496868311</v>
+        <v>0.04912923505519143</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1727715629.760517</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1735538784.221548</v>
+        <v>1994201270.316189</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1073550721110201</v>
+        <v>0.155934980870344</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02966175496632421</v>
+        <v>0.0335363610799212</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>867769356.0332718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2093128325.787448</v>
+        <v>3172785653.681437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1079047096677216</v>
+        <v>0.1127342825963538</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04713418208855514</v>
+        <v>0.04871711698423323</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>57</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1046564228.561411</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2340579120.358387</v>
+        <v>1859858198.967196</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09502100126647037</v>
+        <v>0.08780372834559122</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03462453567561254</v>
+        <v>0.04376268585830128</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1170289510.794829</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3663533223.007637</v>
+        <v>5292710114.969478</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1369718021007818</v>
+        <v>0.1445263379054888</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0186571390452366</v>
+        <v>0.02325984809332742</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1831766640.813445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3915083883.309183</v>
+        <v>3253040674.63644</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08925657246409664</v>
+        <v>0.1115310514559047</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01984932055220387</v>
+        <v>0.02885423763802235</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>63</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1957541988.428396</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3205532191.570034</v>
+        <v>2073843394.282614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1338322825699405</v>
+        <v>0.1116348648646458</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02791225377787845</v>
+        <v>0.03081393007164192</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>75</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1602766096.658089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4685519873.312697</v>
+        <v>3326803528.998416</v>
       </c>
       <c r="F100" t="n">
-        <v>0.179541713186483</v>
+        <v>0.121941406232809</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02818981658376071</v>
+        <v>0.01726977997280447</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>73</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2342760062.035537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2513073733.63702</v>
+        <v>2682376238.333747</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1947821013000363</v>
+        <v>0.207922928646239</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05117725852798214</v>
+        <v>0.04642240484874814</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>96</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1256536891.489685</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_236.xlsx
+++ b/output/fit_clients/fit_round_236.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1866404840.216708</v>
+        <v>1960925696.972939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1011717200373881</v>
+        <v>0.0953028381964371</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04442861006373439</v>
+        <v>0.03313095183413076</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2029317626.595592</v>
+        <v>2429469260.590327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.164621970858574</v>
+        <v>0.1366037462755793</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04934125719860148</v>
+        <v>0.03336574399902988</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3190726949.274511</v>
+        <v>4636698979.180262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1140392723557873</v>
+        <v>0.1565043625674847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03172242555012129</v>
+        <v>0.02483250081155936</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2891626017.537678</v>
+        <v>3598114130.394184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097887264900713</v>
+        <v>0.1097948861350352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04168453246849537</v>
+        <v>0.03445382205049156</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2666978179.289141</v>
+        <v>2034447887.955385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1318160570118924</v>
+        <v>0.1089021671326232</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05229858260086938</v>
+        <v>0.05668665238224086</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2393501067.715819</v>
+        <v>2403719628.057979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07580537781749513</v>
+        <v>0.06389692407215203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03290273153384699</v>
+        <v>0.03429197632260666</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3112557787.670764</v>
+        <v>2815543026.356314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1340042591824847</v>
+        <v>0.1592704239663909</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02694519636080446</v>
+        <v>0.02373071165697353</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1505159452.013482</v>
+        <v>1656804653.503605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1212544551822286</v>
+        <v>0.1653281205567418</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02621813803195595</v>
+        <v>0.03424129306959083</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3640101153.91289</v>
+        <v>3987611353.017838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1376756187181082</v>
+        <v>0.2077286266038033</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03458254240368019</v>
+        <v>0.04897197011416701</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3622085255.457089</v>
+        <v>3549954692.545796</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1409269808727943</v>
+        <v>0.1338924406588365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04229721134679898</v>
+        <v>0.03643481753003181</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2410666738.458525</v>
+        <v>2377192241.818094</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1793664782078198</v>
+        <v>0.1990008836634301</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03448934740556094</v>
+        <v>0.05079763780209013</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4376695868.433931</v>
+        <v>3569331333.731957</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07032020854177043</v>
+        <v>0.09276180367508637</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02915378790356749</v>
+        <v>0.02748637070125398</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3756899854.035807</v>
+        <v>3115143755.149446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1836144898394022</v>
+        <v>0.1360206240981892</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04158344323496711</v>
+        <v>0.0270295376213965</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1623249990.019261</v>
+        <v>1738298791.894986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06894494911477125</v>
+        <v>0.0886462586512614</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03232622984612372</v>
+        <v>0.04125119406255063</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1997030082.733776</v>
+        <v>1925878138.003424</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1143601951787334</v>
+        <v>0.08288014994421861</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04025627327780593</v>
+        <v>0.05058633355515136</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4262954763.781494</v>
+        <v>3920276228.876738</v>
       </c>
       <c r="F17" t="n">
-        <v>0.150182585391904</v>
+        <v>0.1225843875597373</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05226201898382482</v>
+        <v>0.05195218746601683</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3910329257.696657</v>
+        <v>2667499977.212204</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1255791401025871</v>
+        <v>0.1355882707299378</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02433023906279422</v>
+        <v>0.02396153202011551</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1057147428.499238</v>
+        <v>1005410654.330505</v>
       </c>
       <c r="F19" t="n">
-        <v>0.149838906643908</v>
+        <v>0.1463250128958178</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02320889346860026</v>
+        <v>0.02056165710820955</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2465882117.589204</v>
+        <v>2438411592.718117</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09858225066736721</v>
+        <v>0.1614047537678569</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0278575991284689</v>
+        <v>0.03025010570952342</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1837450552.326827</v>
+        <v>2359885973.798733</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09845136136505794</v>
+        <v>0.09355266059191694</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03541064097262172</v>
+        <v>0.02863493222503337</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3680756323.196137</v>
+        <v>2756664179.99548</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09953084402332883</v>
+        <v>0.1025830254675521</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04280748341388174</v>
+        <v>0.04589849136744233</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1411714591.582983</v>
+        <v>1145777034.711087</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1299209123401596</v>
+        <v>0.1214727650562171</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04350801864471108</v>
+        <v>0.03666530005486072</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2617305487.672553</v>
+        <v>3683017989.035897</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1052620821018183</v>
+        <v>0.1392189831381086</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324053089176662</v>
+        <v>0.03626726189387548</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1249783796.361025</v>
+        <v>1048169157.167869</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147674424375254</v>
+        <v>0.1169589161441358</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03066293831587681</v>
+        <v>0.02100391230910464</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1313003382.553594</v>
+        <v>1088693986.11816</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1063692714769483</v>
+        <v>0.1161368536657431</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03855226598163669</v>
+        <v>0.023904717605009</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3734490837.168692</v>
+        <v>3973462115.426658</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1420167343064501</v>
+        <v>0.1070828373388872</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0199665351489382</v>
+        <v>0.02532441675822253</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2384303196.047161</v>
+        <v>3473853794.594083</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1408261162785512</v>
+        <v>0.1199204108051783</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03962490103696999</v>
+        <v>0.03610758233578241</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4773600118.33041</v>
+        <v>5089456913.772372</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1503365206817436</v>
+        <v>0.0997162868320207</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03969090893478499</v>
+        <v>0.03956108262645913</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2014842246.042587</v>
+        <v>2075251915.995671</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08855206290955782</v>
+        <v>0.1317131326788118</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03506000104772033</v>
+        <v>0.03600249431436696</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>971142418.6141917</v>
+        <v>919376523.8964152</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08714884101205195</v>
+        <v>0.06798695101376143</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04985713011483663</v>
+        <v>0.0471505900251802</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1683819287.407961</v>
+        <v>1393124718.758171</v>
       </c>
       <c r="F32" t="n">
-        <v>0.116261529443602</v>
+        <v>0.1209900043547035</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03407676563617425</v>
+        <v>0.02369016095638467</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2786778034.006028</v>
+        <v>3052905789.053939</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2012481546794341</v>
+        <v>0.1802360657114043</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04835444390291976</v>
+        <v>0.04860528074203493</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1097182916.631293</v>
+        <v>1489084335.555931</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07992687329673663</v>
+        <v>0.07938504116585454</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02074527967545367</v>
+        <v>0.02799905841600943</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1216987409.936133</v>
+        <v>1083372792.211484</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1146946064023479</v>
+        <v>0.08175510170821403</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04503598904134453</v>
+        <v>0.0272523357866031</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2942202516.795243</v>
+        <v>2030876466.496884</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1758521245457513</v>
+        <v>0.1784029885630292</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01923570647153954</v>
+        <v>0.020338427554985</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2377092364.831683</v>
+        <v>2596788192.852609</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056406223357776</v>
+        <v>0.1034776673565179</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03116059429217486</v>
+        <v>0.02690923492901431</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1723670911.436296</v>
+        <v>1651494581.791043</v>
       </c>
       <c r="F38" t="n">
-        <v>0.097026158776714</v>
+        <v>0.07694934279699826</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03025276208085593</v>
+        <v>0.04000720371302953</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1484926077.087739</v>
+        <v>1620795320.685681</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1552255951223838</v>
+        <v>0.1649217973211736</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02829926574398828</v>
+        <v>0.0222052391173129</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1188278065.436325</v>
+        <v>1409040053.265984</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1241973241709989</v>
+        <v>0.109534438452324</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03944268370665779</v>
+        <v>0.04260600138008919</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1954096519.257451</v>
+        <v>2297914478.273751</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1532489703470696</v>
+        <v>0.1619515097568495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04256659407941547</v>
+        <v>0.04729025990985261</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4030961041.718307</v>
+        <v>4340591393.93464</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07874770550783752</v>
+        <v>0.08016586183544047</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04071262756799474</v>
+        <v>0.0415839954748239</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2722103165.344625</v>
+        <v>2017361838.158875</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2027588480296499</v>
+        <v>0.1856369321051807</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02370117075097493</v>
+        <v>0.02269762542370919</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1553340896.010277</v>
+        <v>1723851560.002394</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09114974034221396</v>
+        <v>0.07766189836785377</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02830600235173756</v>
+        <v>0.02980919465001552</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2388726371.84686</v>
+        <v>1930319819.811787</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1514729983636615</v>
+        <v>0.1810833935657842</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03553485514612206</v>
+        <v>0.03910941552049318</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4766308944.82719</v>
+        <v>4226361183.063987</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1715441594894136</v>
+        <v>0.1554480215136271</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05340127561332509</v>
+        <v>0.04483465659307965</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4329132792.013406</v>
+        <v>5115197842.994962</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1335822549410054</v>
+        <v>0.1879797651063458</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04317064293679349</v>
+        <v>0.05600791813035936</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3586649302.613583</v>
+        <v>3982453696.002257</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07961812560911433</v>
+        <v>0.08209620820356357</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02515939592364007</v>
+        <v>0.03582916541509674</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1367385963.342795</v>
+        <v>1961781601.575045</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1863769849210434</v>
+        <v>0.1916270648435054</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0274821349003456</v>
+        <v>0.03149654732522045</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3144307445.632887</v>
+        <v>3434642626.440539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1163488803681147</v>
+        <v>0.1372368153894337</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03761858834338831</v>
+        <v>0.03463916415415835</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1304702680.761309</v>
+        <v>1360397745.347371</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1498876891089054</v>
+        <v>0.1948128801986629</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04938383581612769</v>
+        <v>0.05201914781733966</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3741912122.54384</v>
+        <v>4433307137.918572</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09472978032066902</v>
+        <v>0.09124239517873697</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04551032384652439</v>
+        <v>0.05348312096455535</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3503266317.089826</v>
+        <v>3418958735.435509</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1783307694011972</v>
+        <v>0.1892360392150511</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03158314467562885</v>
+        <v>0.02434848160626065</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4773275700.838942</v>
+        <v>3910955349.316982</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1070637064552412</v>
+        <v>0.114125512589994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04484379230598459</v>
+        <v>0.04803377547508626</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4392385861.439066</v>
+        <v>4553226871.413336</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2122802462770257</v>
+        <v>0.1453903661483764</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02288305266418309</v>
+        <v>0.02322003162817247</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1691267523.403627</v>
+        <v>1809367459.290948</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1355257506194866</v>
+        <v>0.1500848023061341</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05079763334970431</v>
+        <v>0.05101529276736146</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3902782009.751709</v>
+        <v>3426211528.911231</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1613237687358547</v>
+        <v>0.1505920015623722</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01875914859964197</v>
+        <v>0.02701229208662525</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1578429701.384295</v>
+        <v>1506997688.946182</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1838041817981061</v>
+        <v>0.1492290863699401</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02764102113976439</v>
+        <v>0.03857253395581304</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3646765248.801146</v>
+        <v>5051047251.142046</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08655432310200988</v>
+        <v>0.0818410760701168</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0315156918756346</v>
+        <v>0.04117981635084821</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3770496509.519956</v>
+        <v>2472225952.334987</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1820036714119343</v>
+        <v>0.1582346988487061</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02320471920856682</v>
+        <v>0.02408506561020839</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2133318677.604264</v>
+        <v>2587943929.161048</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1506320032489636</v>
+        <v>0.1509053139033224</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03212607959521725</v>
+        <v>0.02054754809968501</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1770774094.049181</v>
+        <v>1523334376.051653</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1411531967015111</v>
+        <v>0.1710779371119185</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04441914108443204</v>
+        <v>0.04269647264815801</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4873209517.185355</v>
+        <v>3822677519.888013</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1072534114910401</v>
+        <v>0.08354045509952164</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04269674531235571</v>
+        <v>0.02871916446067638</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4576681696.236918</v>
+        <v>3832053570.11402</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1488070369570297</v>
+        <v>0.1448065395949161</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0216928870323248</v>
+        <v>0.03235887460577243</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4604965901.150398</v>
+        <v>5819386532.981823</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1289207934437853</v>
+        <v>0.136366996977</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0262371442802266</v>
+        <v>0.02397307269470723</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4159196203.87612</v>
+        <v>4969453747.430489</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1542981864543918</v>
+        <v>0.1136516320539472</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03272020938108021</v>
+        <v>0.03671623264142463</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2203412901.977975</v>
+        <v>3241061150.694255</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08768334255655039</v>
+        <v>0.07436191851932709</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04245465840903539</v>
+        <v>0.03907387034250964</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5262866982.904059</v>
+        <v>4134417924.684334</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1593343889281416</v>
+        <v>0.106995155217814</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04138128167825905</v>
+        <v>0.05110624084089314</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2235838745.480512</v>
+        <v>2400076417.368376</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1464295797161157</v>
+        <v>0.1797780495349229</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04361713273329286</v>
+        <v>0.04628894022983324</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3355813801.653059</v>
+        <v>2716579447.548525</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06538937754598213</v>
+        <v>0.09549697634741723</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04044960442883268</v>
+        <v>0.03375952192018116</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3546446800.85947</v>
+        <v>3397801773.133454</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1123292971806513</v>
+        <v>0.1316837941761602</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02205884105089318</v>
+        <v>0.03328945168718431</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1608451247.368255</v>
+        <v>1401986718.422621</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07881470019208549</v>
+        <v>0.09516174551497833</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0342680044997947</v>
+        <v>0.03583904164353034</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2964566914.946702</v>
+        <v>2766546683.040686</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09476821915509501</v>
+        <v>0.1119110687872567</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04596375147375712</v>
+        <v>0.03808424393778696</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3488104171.969596</v>
+        <v>3161291713.418093</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1470288844462774</v>
+        <v>0.1240267715725083</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03087805290278831</v>
+        <v>0.02498066345561816</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2316472216.117899</v>
+        <v>2382534573.033693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1556512951581277</v>
+        <v>0.1236557815572447</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03765724148378696</v>
+        <v>0.03586155010164015</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3815533918.17639</v>
+        <v>5187248736.994464</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08565952819875752</v>
+        <v>0.09713970776049834</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02945997000314742</v>
+        <v>0.02557248759896607</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1590398594.674709</v>
+        <v>2154926662.303641</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1359986270070929</v>
+        <v>0.1289611270022989</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03051660678182014</v>
+        <v>0.02527174707029506</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3356446419.370306</v>
+        <v>4349210846.903943</v>
       </c>
       <c r="F78" t="n">
-        <v>0.109048116255715</v>
+        <v>0.1058172948829094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0567888619984987</v>
+        <v>0.04378370130656552</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1806954562.552402</v>
+        <v>1196491785.891886</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1122098160962408</v>
+        <v>0.1526803158408611</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03489643282994931</v>
+        <v>0.02687879631235072</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3456033544.059943</v>
+        <v>5068812094.778152</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08482702224284731</v>
+        <v>0.1017684830887512</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03564383371984685</v>
+        <v>0.02631461671848415</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3994315930.449949</v>
+        <v>3436081785.215073</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1155331852247857</v>
+        <v>0.09407958024068452</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0288048552334544</v>
+        <v>0.02623625619085223</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4769136311.086363</v>
+        <v>5509541147.042814</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2133285658060269</v>
+        <v>0.211671410356047</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02924136664392032</v>
+        <v>0.02578771955961996</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2146031837.697721</v>
+        <v>1531603010.002479</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1289403069151611</v>
+        <v>0.1507545925727626</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03687925580802719</v>
+        <v>0.04042366265384767</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1777250004.584239</v>
+        <v>2503097639.321771</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08831170519738346</v>
+        <v>0.1033203175663061</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03410338408368003</v>
+        <v>0.05221498483857036</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2888448836.373716</v>
+        <v>2625895965.417806</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1115597109305635</v>
+        <v>0.1269932883145</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03940400718741573</v>
+        <v>0.04867230646406148</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2728589332.855605</v>
+        <v>2613224108.571171</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1369206744295133</v>
+        <v>0.1135155892357696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02446531177958483</v>
+        <v>0.02303936091943237</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1479649512.595938</v>
+        <v>1037504524.176035</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1596007503101437</v>
+        <v>0.142666583386915</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04182004148731512</v>
+        <v>0.03543775897396921</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3705513655.86318</v>
+        <v>3057252616.066993</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1543260069682071</v>
+        <v>0.1446664870438882</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03605732578436799</v>
+        <v>0.02687807116981233</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2266080854.29901</v>
+        <v>2411956398.051083</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1459345324689222</v>
+        <v>0.1502201621696048</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02544596923757272</v>
+        <v>0.02741879436156883</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2114923379.656866</v>
+        <v>2060467760.739573</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09398478639016181</v>
+        <v>0.1313629794388938</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05013812969029296</v>
+        <v>0.05613275633261826</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1366196985.20369</v>
+        <v>1618652683.038126</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1936599952322771</v>
+        <v>0.1852381993718209</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04630724456743943</v>
+        <v>0.03958109256567242</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2274759927.338628</v>
+        <v>2097450270.683076</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06933782099128497</v>
+        <v>0.1027080186411481</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03908430331077886</v>
+        <v>0.02962661348944524</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4155312069.602747</v>
+        <v>3114792207.382357</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09326596452641087</v>
+        <v>0.1000098210888321</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04912923505519143</v>
+        <v>0.05269316934337925</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1994201270.316189</v>
+        <v>1982930351.875252</v>
       </c>
       <c r="F94" t="n">
-        <v>0.155934980870344</v>
+        <v>0.133507056397238</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0335363610799212</v>
+        <v>0.03481309325616817</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3172785653.681437</v>
+        <v>2615711945.039112</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1127342825963538</v>
+        <v>0.1194101196531155</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04871711698423323</v>
+        <v>0.04544705057663569</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1859858198.967196</v>
+        <v>2086076584.465192</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08780372834559122</v>
+        <v>0.0913317995628143</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04376268585830128</v>
+        <v>0.03583460670070094</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5292710114.969478</v>
+        <v>3246981048.389678</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1445263379054888</v>
+        <v>0.1272989820789935</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02325984809332742</v>
+        <v>0.01960308746484448</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3253040674.63644</v>
+        <v>2546902069.276504</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1115310514559047</v>
+        <v>0.09635736785857522</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02885423763802235</v>
+        <v>0.02856418414405342</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2073843394.282614</v>
+        <v>3128996792.025963</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1116348648646458</v>
+        <v>0.09039428283590847</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03081393007164192</v>
+        <v>0.02721701036039102</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3326803528.998416</v>
+        <v>4074691302.409815</v>
       </c>
       <c r="F100" t="n">
-        <v>0.121941406232809</v>
+        <v>0.1606107330924113</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01726977997280447</v>
+        <v>0.01852314431724676</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2682376238.333747</v>
+        <v>2555015941.919533</v>
       </c>
       <c r="F101" t="n">
-        <v>0.207922928646239</v>
+        <v>0.141720116026279</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04642240484874814</v>
+        <v>0.04739717114448273</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_236.xlsx
+++ b/output/fit_clients/fit_round_236.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1960925696.972939</v>
+        <v>2089256210.593565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0953028381964371</v>
+        <v>0.0917739210277273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03313095183413076</v>
+        <v>0.04191848347400867</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2429469260.590327</v>
+        <v>1738715559.692371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1366037462755793</v>
+        <v>0.1229008445382213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03336574399902988</v>
+        <v>0.03136511935684802</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4636698979.180262</v>
+        <v>4442659731.26813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1565043625674847</v>
+        <v>0.1615666805714052</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02483250081155936</v>
+        <v>0.03112814565777492</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>128</v>
+      </c>
+      <c r="J4" t="n">
+        <v>235</v>
+      </c>
+      <c r="K4" t="n">
+        <v>104.4213033557358</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3598114130.394184</v>
+        <v>2563857843.23203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097948861350352</v>
+        <v>0.08078998001621768</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03445382205049156</v>
+        <v>0.03658825498830198</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>232</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2034447887.955385</v>
+        <v>2196510309.617141</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1089021671326232</v>
+        <v>0.09283037793694005</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05668665238224086</v>
+        <v>0.03765640236972115</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2403719628.057979</v>
+        <v>2383155708.857933</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06389692407215203</v>
+        <v>0.08140154121185095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03429197632260666</v>
+        <v>0.04643996486197082</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2815543026.356314</v>
+        <v>3411745433.999748</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1592704239663909</v>
+        <v>0.1589191014756251</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02373071165697353</v>
+        <v>0.03323189555809834</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1656804653.503605</v>
+        <v>2247041481.162264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1653281205567418</v>
+        <v>0.1405131394034869</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03424129306959083</v>
+        <v>0.02528376386461706</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3987611353.017838</v>
+        <v>4849584766.384649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2077286266038033</v>
+        <v>0.1397074367197973</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04897197011416701</v>
+        <v>0.04707931977990892</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>215</v>
+      </c>
+      <c r="J10" t="n">
+        <v>236</v>
+      </c>
+      <c r="K10" t="n">
+        <v>113.3564955825948</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3549954692.545796</v>
+        <v>3561419255.512354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1338924406588365</v>
+        <v>0.1468657278473424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03643481753003181</v>
+        <v>0.03335255358524753</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>98</v>
+      </c>
+      <c r="J11" t="n">
+        <v>236</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2377192241.818094</v>
+        <v>2956910011.753383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1990008836634301</v>
+        <v>0.1212219962672478</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05079763780209013</v>
+        <v>0.04178405826374328</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3569331333.731957</v>
+        <v>3894558176.672821</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09276180367508637</v>
+        <v>0.09654041048694198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02748637070125398</v>
+        <v>0.02170758584212825</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>119</v>
+      </c>
+      <c r="J13" t="n">
+        <v>235</v>
+      </c>
+      <c r="K13" t="n">
+        <v>104.811718804286</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3115143755.149446</v>
+        <v>3166525093.833801</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1360206240981892</v>
+        <v>0.1304131392673046</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0270295376213965</v>
+        <v>0.04188083147300185</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>234</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1738298791.894986</v>
+        <v>1379292934.079103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0886462586512614</v>
+        <v>0.09339779578258818</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04125119406255063</v>
+        <v>0.03840220012314943</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1925878138.003424</v>
+        <v>2779351756.283629</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08288014994421861</v>
+        <v>0.09071993000414502</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05058633355515136</v>
+        <v>0.04732552623590527</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3920276228.876738</v>
+        <v>3506350496.037138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1225843875597373</v>
+        <v>0.1103780453086737</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05195218746601683</v>
+        <v>0.04680387748279938</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>114</v>
+      </c>
+      <c r="J17" t="n">
+        <v>235</v>
+      </c>
+      <c r="K17" t="n">
+        <v>78.34121380694907</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2667499977.212204</v>
+        <v>3307439589.313756</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1355882707299378</v>
+        <v>0.1538203608430433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02396153202011551</v>
+        <v>0.02162852050472176</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1005410654.330505</v>
+        <v>1112469258.549991</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1463250128958178</v>
+        <v>0.1706821610408047</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02056165710820955</v>
+        <v>0.0240493034995923</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2438411592.718117</v>
+        <v>2342022663.766549</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1614047537678569</v>
+        <v>0.1241698673837091</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03025010570952342</v>
+        <v>0.02024084978243854</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2359885973.798733</v>
+        <v>2295682300.337839</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09355266059191694</v>
+        <v>0.09519193216899213</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02863493222503337</v>
+        <v>0.03611011025325057</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1209,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2756664179.99548</v>
+        <v>3545956309.757968</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1025830254675521</v>
+        <v>0.1178362888757364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04589849136744233</v>
+        <v>0.03960337798057613</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>60</v>
+      </c>
+      <c r="J22" t="n">
+        <v>235</v>
+      </c>
+      <c r="K22" t="n">
+        <v>80.74515740927689</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1145777034.711087</v>
+        <v>1530164235.504847</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1214727650562171</v>
+        <v>0.158585434251648</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03666530005486072</v>
+        <v>0.05179561216987615</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3683017989.035897</v>
+        <v>3927277510.997349</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1392189831381086</v>
+        <v>0.12068134023595</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03626726189387548</v>
+        <v>0.02901084753731993</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>71</v>
+      </c>
+      <c r="J24" t="n">
+        <v>236</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1048169157.167869</v>
+        <v>1128332687.71873</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1169589161441358</v>
+        <v>0.1072349932238653</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02100391230910464</v>
+        <v>0.0274066248723147</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088693986.11816</v>
+        <v>1418054294.337209</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1161368536657431</v>
+        <v>0.1041560571235635</v>
       </c>
       <c r="G26" t="n">
-        <v>0.023904717605009</v>
+        <v>0.0345105602522198</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3973462115.426658</v>
+        <v>3745506356.036286</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1070828373388872</v>
+        <v>0.09777245406634311</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02532441675822253</v>
+        <v>0.02224258277046547</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>95</v>
+      </c>
+      <c r="J27" t="n">
+        <v>236</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3473853794.594083</v>
+        <v>2622108683.19626</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1199204108051783</v>
+        <v>0.1164773654103597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03610758233578241</v>
+        <v>0.04981729680806152</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5089456913.772372</v>
+        <v>5241073429.394485</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0997162868320207</v>
+        <v>0.09573808869824184</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03956108262645913</v>
+        <v>0.0442482797475782</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>225</v>
+      </c>
+      <c r="J29" t="n">
+        <v>236</v>
+      </c>
+      <c r="K29" t="n">
+        <v>118.6258330820716</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2075251915.995671</v>
+        <v>2310809526.524674</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1317131326788118</v>
+        <v>0.133893573869961</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03600249431436696</v>
+        <v>0.03988204971708229</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>919376523.8964152</v>
+        <v>1372983588.361543</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06798695101376143</v>
+        <v>0.09453111577821494</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0471505900251802</v>
+        <v>0.04633293126210145</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1393124718.758171</v>
+        <v>1831608554.871558</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1209900043547035</v>
+        <v>0.1168463526911277</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02369016095638467</v>
+        <v>0.03317925281031833</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3052905789.053939</v>
+        <v>1907426570.504408</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1802360657114043</v>
+        <v>0.1766568535244673</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04860528074203493</v>
+        <v>0.05343821137879435</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1489084335.555931</v>
+        <v>1196994893.7065</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07938504116585454</v>
+        <v>0.1042255908366479</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02799905841600943</v>
+        <v>0.02657234749313144</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1083372792.211484</v>
+        <v>885992889.4231949</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08175510170821403</v>
+        <v>0.1032256198815387</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0272523357866031</v>
+        <v>0.02980712790983125</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2030876466.496884</v>
+        <v>2597369301.925691</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1784029885630292</v>
+        <v>0.1780456325388029</v>
       </c>
       <c r="G36" t="n">
-        <v>0.020338427554985</v>
+        <v>0.02141617715944156</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2596788192.852609</v>
+        <v>2942365385.60692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1034776673565179</v>
+        <v>0.07452351245667194</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02690923492901431</v>
+        <v>0.03994426156868343</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1651494581.791043</v>
+        <v>1759892557.997802</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07694934279699826</v>
+        <v>0.07587661903996336</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04000720371302953</v>
+        <v>0.02759990302594694</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1620795320.685681</v>
+        <v>2180425283.609083</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649217973211736</v>
+        <v>0.1774321153355939</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0222052391173129</v>
+        <v>0.02743583420637002</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1409040053.265984</v>
+        <v>1681213811.41342</v>
       </c>
       <c r="F40" t="n">
-        <v>0.109534438452324</v>
+        <v>0.1259984414000861</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04260600138008919</v>
+        <v>0.05065226585351822</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2297914478.273751</v>
+        <v>2229335376.075672</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1619515097568495</v>
+        <v>0.1333601082717081</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04729025990985261</v>
+        <v>0.03402937624580347</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4340591393.93464</v>
+        <v>4084365722.158209</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08016586183544047</v>
+        <v>0.1110539039207845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0415839954748239</v>
+        <v>0.03069983643327727</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>96</v>
+      </c>
+      <c r="J42" t="n">
+        <v>236</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2017361838.158875</v>
+        <v>2342037451.356298</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1856369321051807</v>
+        <v>0.1318403710685412</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02269762542370919</v>
+        <v>0.02586425798275622</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1723851560.002394</v>
+        <v>2355540167.767991</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07766189836785377</v>
+        <v>0.09055228836547406</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02980919465001552</v>
+        <v>0.03699127729902199</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1930319819.811787</v>
+        <v>1670772222.043864</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1810833935657842</v>
+        <v>0.117565197193184</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03910941552049318</v>
+        <v>0.04667901855489046</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4226361183.063987</v>
+        <v>5457097153.081403</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1554480215136271</v>
+        <v>0.1552291500530931</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04483465659307965</v>
+        <v>0.05907748789064537</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>135</v>
+      </c>
+      <c r="J46" t="n">
+        <v>236</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5115197842.994962</v>
+        <v>4607013249.07701</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1879797651063458</v>
+        <v>0.185001788401575</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05600791813035936</v>
+        <v>0.05069858393887525</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>105</v>
+      </c>
+      <c r="J47" t="n">
+        <v>236</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3982453696.002257</v>
+        <v>3535111701.625891</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08209620820356357</v>
+        <v>0.1065604413605083</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03582916541509674</v>
+        <v>0.02359748161949896</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>116</v>
+      </c>
+      <c r="J48" t="n">
+        <v>235</v>
+      </c>
+      <c r="K48" t="n">
+        <v>91.27557105345474</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1961781601.575045</v>
+        <v>1673432983.547204</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1916270648435054</v>
+        <v>0.177187107839563</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03149654732522045</v>
+        <v>0.03913171914987221</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3434642626.440539</v>
+        <v>3017408783.668816</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1372368153894337</v>
+        <v>0.1155965456607078</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03463916415415835</v>
+        <v>0.03235314517029468</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>77</v>
+      </c>
+      <c r="J50" t="n">
+        <v>232</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1360397745.347371</v>
+        <v>1060232646.412483</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1948128801986629</v>
+        <v>0.1450023039850039</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05201914781733966</v>
+        <v>0.0516906756706599</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4433307137.918572</v>
+        <v>5193333126.025334</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09124239517873697</v>
+        <v>0.1047804178768206</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05348312096455535</v>
+        <v>0.0563016227703618</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>155</v>
+      </c>
+      <c r="J52" t="n">
+        <v>235</v>
+      </c>
+      <c r="K52" t="n">
+        <v>104.1287496864131</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3418958735.435509</v>
+        <v>3086175367.790813</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1892360392150511</v>
+        <v>0.1806571026302694</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02434848160626065</v>
+        <v>0.03481092005043711</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3910955349.316982</v>
+        <v>3994611512.732955</v>
       </c>
       <c r="F54" t="n">
-        <v>0.114125512589994</v>
+        <v>0.1592740917112268</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04803377547508626</v>
+        <v>0.0354212669959056</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>125</v>
+      </c>
+      <c r="J54" t="n">
+        <v>236</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4553226871.413336</v>
+        <v>3689532526.250168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1453903661483764</v>
+        <v>0.1682981220150358</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02322003162817247</v>
+        <v>0.03063098093590482</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>105</v>
+      </c>
+      <c r="J55" t="n">
+        <v>236</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1809367459.290948</v>
+        <v>1870753129.177618</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1500848023061341</v>
+        <v>0.1167477274667457</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05101529276736146</v>
+        <v>0.04024604004995265</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3426211528.911231</v>
+        <v>3340189049.814349</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1505920015623722</v>
+        <v>0.1323130506827651</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02701229208662525</v>
+        <v>0.01849738797978503</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>93</v>
+      </c>
+      <c r="J57" t="n">
+        <v>235</v>
+      </c>
+      <c r="K57" t="n">
+        <v>77.04568936594902</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1506997688.946182</v>
+        <v>1577974614.896774</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1492290863699401</v>
+        <v>0.161970540923262</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03857253395581304</v>
+        <v>0.03933876988294988</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5051047251.142046</v>
+        <v>4247018390.734005</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0818410760701168</v>
+        <v>0.1224571601958416</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04117981635084821</v>
+        <v>0.04654358353596098</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>114</v>
+      </c>
+      <c r="J59" t="n">
+        <v>235</v>
+      </c>
+      <c r="K59" t="n">
+        <v>99.51047337751238</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2472225952.334987</v>
+        <v>3202759100.342737</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1582346988487061</v>
+        <v>0.1848704920732925</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02408506561020839</v>
+        <v>0.02933695161465795</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2587943929.161048</v>
+        <v>3368844765.819929</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1509053139033224</v>
+        <v>0.1249144784141055</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02054754809968501</v>
+        <v>0.0272918616198727</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1523334376.051653</v>
+        <v>1595269760.531686</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1710779371119185</v>
+        <v>0.1411352546766991</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04269647264815801</v>
+        <v>0.03621303868829241</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3822677519.888013</v>
+        <v>3944560955.814242</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08354045509952164</v>
+        <v>0.09887082462715541</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02871916446067638</v>
+        <v>0.0417285297326068</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>115</v>
+      </c>
+      <c r="J63" t="n">
+        <v>235</v>
+      </c>
+      <c r="K63" t="n">
+        <v>101.7995895863431</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3832053570.11402</v>
+        <v>3753778770.609954</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1448065395949161</v>
+        <v>0.1774075729035984</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03235887460577243</v>
+        <v>0.02235234500283417</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>116</v>
+      </c>
+      <c r="J64" t="n">
+        <v>236</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5819386532.981823</v>
+        <v>4645154250.584262</v>
       </c>
       <c r="F65" t="n">
-        <v>0.136366996977</v>
+        <v>0.1347119727685435</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02397307269470723</v>
+        <v>0.02077811161005468</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>188</v>
+      </c>
+      <c r="J65" t="n">
+        <v>236</v>
+      </c>
+      <c r="K65" t="n">
+        <v>110.0325248581038</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4969453747.430489</v>
+        <v>5672378247.500264</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1136516320539472</v>
+        <v>0.1495020770406328</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03671623264142463</v>
+        <v>0.03385921301119154</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>116</v>
+      </c>
+      <c r="J66" t="n">
+        <v>236</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,22 +2794,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3241061150.694255</v>
+        <v>2994035179.439216</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07436191851932709</v>
+        <v>0.07516210354239607</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03907387034250964</v>
+        <v>0.03929300170768332</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="n">
+        <v>67.73906403914592</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4134417924.684334</v>
+        <v>4573108111.709971</v>
       </c>
       <c r="F68" t="n">
-        <v>0.106995155217814</v>
+        <v>0.1382693818332723</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05110624084089314</v>
+        <v>0.05034350660265923</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>119</v>
+      </c>
+      <c r="J68" t="n">
+        <v>236</v>
+      </c>
+      <c r="K68" t="n">
+        <v>107.6330841769837</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2400076417.368376</v>
+        <v>2009893215.012996</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1797780495349229</v>
+        <v>0.179450582611355</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04628894022983324</v>
+        <v>0.04757906802359828</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2716579447.548525</v>
+        <v>2266300119.767486</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09549697634741723</v>
+        <v>0.06683736406376439</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03375952192018116</v>
+        <v>0.04472236876457589</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>37</v>
+      </c>
+      <c r="J70" t="n">
+        <v>234</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3397801773.133454</v>
+        <v>3420340840.945708</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1316837941761602</v>
+        <v>0.1609112568423108</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03328945168718431</v>
+        <v>0.0272397993261109</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>179</v>
+      </c>
+      <c r="J71" t="n">
+        <v>235</v>
+      </c>
+      <c r="K71" t="n">
+        <v>82.15666942878173</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1401986718.422621</v>
+        <v>1871927421.197252</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09516174551497833</v>
+        <v>0.09156241368809899</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03583904164353034</v>
+        <v>0.03843659820885645</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2766546683.040686</v>
+        <v>3039255746.788348</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1119110687872567</v>
+        <v>0.07226441907327161</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03808424393778696</v>
+        <v>0.04785675239729221</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3161291713.418093</v>
+        <v>3480997182.618053</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1240267715725083</v>
+        <v>0.1714012425337949</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02498066345561816</v>
+        <v>0.03180982983361558</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>236</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2382534573.033693</v>
+        <v>1984543446.10648</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1236557815572447</v>
+        <v>0.1060922338062802</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03586155010164015</v>
+        <v>0.03022176513747256</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5187248736.994464</v>
+        <v>4509612886.294247</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09713970776049834</v>
+        <v>0.1099819631158776</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02557248759896607</v>
+        <v>0.02940707514570903</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>109</v>
+      </c>
+      <c r="J76" t="n">
+        <v>236</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2154926662.303641</v>
+        <v>1676199418.565928</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1289611270022989</v>
+        <v>0.1826779365418118</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02527174707029506</v>
+        <v>0.02225576663245357</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4349210846.903943</v>
+        <v>3149897689.816591</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1058172948829094</v>
+        <v>0.1273253790743255</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04378370130656552</v>
+        <v>0.04197339564261387</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>117</v>
+      </c>
+      <c r="J78" t="n">
+        <v>232</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1196491785.891886</v>
+        <v>1542577860.516941</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1526803158408611</v>
+        <v>0.1358244707223432</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02687879631235072</v>
+        <v>0.02827352539367981</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5068812094.778152</v>
+        <v>5571286249.176206</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1017684830887512</v>
+        <v>0.07472591709140515</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02631461671848415</v>
+        <v>0.02623726384641144</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>115</v>
+      </c>
+      <c r="J80" t="n">
+        <v>235</v>
+      </c>
+      <c r="K80" t="n">
+        <v>80.33837838555681</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3436081785.215073</v>
+        <v>4984461634.756473</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09407958024068452</v>
+        <v>0.116691862004792</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02623625619085223</v>
+        <v>0.0240806780946667</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>108</v>
+      </c>
+      <c r="J81" t="n">
+        <v>236</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5509541147.042814</v>
+        <v>4615336150.582877</v>
       </c>
       <c r="F82" t="n">
-        <v>0.211671410356047</v>
+        <v>0.1594249379280986</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02578771955961996</v>
+        <v>0.02138264982647691</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>178</v>
+      </c>
+      <c r="J82" t="n">
+        <v>236</v>
+      </c>
+      <c r="K82" t="n">
+        <v>110.9734330728285</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1531603010.002479</v>
+        <v>2425500416.090798</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1507545925727626</v>
+        <v>0.1283599770623936</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04042366265384767</v>
+        <v>0.03665922595162448</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2503097639.321771</v>
+        <v>2344382799.988682</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1033203175663061</v>
+        <v>0.08568884116980617</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05221498483857036</v>
+        <v>0.04072726233191171</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2625895965.417806</v>
+        <v>2652618278.23996</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1269932883145</v>
+        <v>0.1342929601544487</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04867230646406148</v>
+        <v>0.04910434224665314</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>235</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.00159867151879</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2613224108.571171</v>
+        <v>2094192828.401958</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1135155892357696</v>
+        <v>0.1247931043426172</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02303936091943237</v>
+        <v>0.02099030404700302</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1037504524.176035</v>
+        <v>968699393.0067689</v>
       </c>
       <c r="F87" t="n">
-        <v>0.142666583386915</v>
+        <v>0.1737670730035051</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03543775897396921</v>
+        <v>0.03095105219197943</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3057252616.066993</v>
+        <v>2458620777.062442</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1446664870438882</v>
+        <v>0.1314050696091096</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02687807116981233</v>
+        <v>0.02681832528682586</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2411956398.051083</v>
+        <v>2136727444.888142</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1502201621696048</v>
+        <v>0.1253364843343529</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02741879436156883</v>
+        <v>0.02540844988668809</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2060467760.739573</v>
+        <v>1334811676.519613</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1313629794388938</v>
+        <v>0.1302711155897763</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05613275633261826</v>
+        <v>0.04020740818766822</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1618652683.038126</v>
+        <v>1406498733.376332</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1852381993718209</v>
+        <v>0.1647868764461791</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03958109256567242</v>
+        <v>0.06028279279418652</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2097450270.683076</v>
+        <v>2738295384.330525</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1027080186411481</v>
+        <v>0.06836341898427012</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02962661348944524</v>
+        <v>0.02988548742346224</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3114792207.382357</v>
+        <v>4343840736.413325</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1000098210888321</v>
+        <v>0.1148364376282162</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05269316934337925</v>
+        <v>0.05162428045383901</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>105</v>
+      </c>
+      <c r="J93" t="n">
+        <v>235</v>
+      </c>
+      <c r="K93" t="n">
+        <v>103.8310738048962</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1982930351.875252</v>
+        <v>2096932218.190401</v>
       </c>
       <c r="F94" t="n">
-        <v>0.133507056397238</v>
+        <v>0.1513900993174863</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03481309325616817</v>
+        <v>0.0299761722806849</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2615711945.039112</v>
+        <v>3184859611.678613</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1194101196531155</v>
+        <v>0.1114388420763366</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04544705057663569</v>
+        <v>0.04631482527245732</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2086076584.465192</v>
+        <v>2099195263.506371</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0913317995628143</v>
+        <v>0.1054567319310739</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03583460670070094</v>
+        <v>0.03358828004375133</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3246981048.389678</v>
+        <v>5368917328.774236</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1272989820789935</v>
+        <v>0.1317843660669853</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01960308746484448</v>
+        <v>0.0274818579306091</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>114</v>
+      </c>
+      <c r="J97" t="n">
+        <v>236</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2546902069.276504</v>
+        <v>3767829155.502182</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09635736785857522</v>
+        <v>0.1017441138170926</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02856418414405342</v>
+        <v>0.02377461256770725</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>57</v>
+      </c>
+      <c r="J98" t="n">
+        <v>236</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3128996792.025963</v>
+        <v>2900252794.034972</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09039428283590847</v>
+        <v>0.1314598311021698</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02721701036039102</v>
+        <v>0.0233524754120633</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4074691302.409815</v>
+        <v>3501940065.071874</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1606107330924113</v>
+        <v>0.1736502133316242</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01852314431724676</v>
+        <v>0.02658219110103154</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>99</v>
+      </c>
+      <c r="J100" t="n">
+        <v>235</v>
+      </c>
+      <c r="K100" t="n">
+        <v>83.0619576860191</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2555015941.919533</v>
+        <v>2680599169.158354</v>
       </c>
       <c r="F101" t="n">
-        <v>0.141720116026279</v>
+        <v>0.1520664906792447</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04739717114448273</v>
+        <v>0.05702315238318756</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
